--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\invoices-to-journal-entry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\coding\invoices-to-journal-entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D998B59-8B14-4AD0-A9B2-8E887FC5DC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F2237E-47D1-40E9-A33C-DB1E8129F703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t>التاريخ</t>
   </si>
@@ -43,10 +43,16 @@
     <t>الوصف</t>
   </si>
   <si>
-    <t>1201220</t>
-  </si>
-  <si>
-    <t>107</t>
+    <t>مواد بناء فلل التخصصي</t>
+  </si>
+  <si>
+    <t>1201915</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>مواد بناء فلل التخصصي فاتورة 6444-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
   </si>
   <si>
     <t>ضريبة القيمة المضافة</t>
@@ -55,49 +61,28 @@
     <t>21054</t>
   </si>
   <si>
-    <t>شركة الحوامة للتجارة</t>
+    <t>مؤسسة شريفة حشيفان العتيبي لمواد البناء</t>
   </si>
   <si>
     <t>2101171</t>
   </si>
   <si>
-    <t>120162</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>50813</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>21052</t>
-  </si>
-  <si>
-    <t>مواد سباكة الامام3</t>
-  </si>
-  <si>
-    <t>مواد سباكة الامام3 فاتورة 1018901-شركة الحوامة للتجارة-311340058700003</t>
-  </si>
-  <si>
-    <t>مواد سباكة نخيل الجامعة</t>
-  </si>
-  <si>
-    <t>مواد سباكة نخيل الجامعة فاتورة 1018920-شركة الحوامة للتجارة-311340058700003</t>
-  </si>
-  <si>
-    <t>مواد سباكة الامام2</t>
-  </si>
-  <si>
-    <t>مواد سباكة الامام2 فاتورة 1019588-شركة الحوامة للتجارة-311340058700003</t>
-  </si>
-  <si>
-    <t>مواد سباكة الامام3 فاتورة 1020186-شركة الحوامة للتجارة-311340058700003</t>
-  </si>
-  <si>
-    <t>مواد سباكة الامام3 فاتورة 1020316-شركة الحوامة للتجارة-311340058700003</t>
+    <t>مواد بناء فلل التخصصي فاتورة 6447-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
+  </si>
+  <si>
+    <t>مواد بناء فلل التخصصي فاتورة 6477-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
+  </si>
+  <si>
+    <t>مواد بناء فلل التخصصي فاتورة 6487-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
+  </si>
+  <si>
+    <t>مواد بناء فلل التخصصي فاتورة 6544-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
+  </si>
+  <si>
+    <t>مواد بناء فلل التخصصي فاتورة 6545-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
+  </si>
+  <si>
+    <t>مواد بناء فلل التخصصي فاتورة 6420-مؤسسة شريفة حشيفان العتيبي لمواد البناء-310864207200003</t>
   </si>
 </sst>
 </file>
@@ -464,21 +449,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,302 +491,422 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45253</v>
+        <v>45293</v>
       </c>
       <c r="B2">
-        <v>1999.47</v>
+        <v>278.2</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45253</v>
+        <v>45293</v>
       </c>
       <c r="B3">
-        <v>299.9205</v>
+        <v>41.73</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45253</v>
+        <v>45293</v>
       </c>
       <c r="C4">
-        <v>2299.3905</v>
+        <v>319.93</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45253</v>
+        <v>45294</v>
       </c>
       <c r="B5">
-        <v>1010</v>
+        <v>1260.5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45253</v>
+        <v>45294</v>
       </c>
       <c r="B6">
-        <v>151.5</v>
+        <v>189.07499999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45253</v>
+        <v>45294</v>
       </c>
       <c r="C7">
-        <v>1161.5</v>
+        <v>1449.575</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45259</v>
+        <v>45295</v>
       </c>
       <c r="B8">
-        <v>2262</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45259</v>
+        <v>45295</v>
       </c>
       <c r="B9">
-        <v>339.3</v>
+        <v>39.15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45259</v>
+        <v>45295</v>
       </c>
       <c r="C10">
-        <v>2601.3000000000002</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45265</v>
+        <v>45296</v>
       </c>
       <c r="B11">
-        <v>1586</v>
+        <v>4956.3</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45265</v>
+        <v>45296</v>
       </c>
       <c r="B12">
-        <v>237.9</v>
+        <v>743.44500000000005</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45265</v>
+        <v>45296</v>
       </c>
       <c r="C13">
-        <v>1823.9</v>
+        <v>5699.7449999999999</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45266</v>
+        <v>45300</v>
       </c>
       <c r="B14">
-        <v>2054.4299999999998</v>
+        <v>1008.4</v>
       </c>
       <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45266</v>
+        <v>45300</v>
       </c>
       <c r="B15">
-        <v>308.16449999999998</v>
+        <v>151.26</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45266</v>
+        <v>45300</v>
       </c>
       <c r="C16">
-        <v>2362.5945000000002</v>
+        <v>1159.6600000000001</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B17">
+        <v>495.63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B18">
+        <v>74.344499999999996</v>
+      </c>
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C19">
+        <v>569.97450000000003</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B20">
+        <v>1391</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
-        <v>25</v>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B21">
+        <v>208.65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C22">
+        <v>1599.65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
